--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Usuarios\Chris\Documentos\GitHub\wind-turbine-vr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34097E98-0F03-490A-B0BF-A84E472C86F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080FBD67-E814-464F-9F17-5625310A77F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7455" yWindow="1755" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Guide</t>
   </si>
   <si>
-    <t>Bienvenido al modo guía. Esto es un panel informativo. Habrá más como este a lo largo de la sesión. Por favor, siga las instrucciones.</t>
+    <t>¡Bienvenido al modo guía de Wind Turbine VR!</t>
+  </si>
+  <si>
+    <t>Este modo le ayudará a familiarizarse con los controles, mientras realiza un procedimiento</t>
   </si>
 </sst>
 </file>
@@ -348,68 +351,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B11"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>

--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Usuarios\Chris\Documentos\GitHub\wind-turbine-vr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{080FBD67-E814-464F-9F17-5625310A77F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31DC905-DAAA-406C-8F34-33A1F70D4CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7455" yWindow="1755" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,15 +25,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>Guide</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>¡Bienvenido al modo guía de Wind Turbine VR!</t>
   </si>
   <si>
-    <t>Este modo le ayudará a familiarizarse con los controles, mientras realiza un procedimiento</t>
+    <t>Este modo le enseñará a seguir los procedimientos de seguridad para entrar a un aerogenerador y desplazarse por él.</t>
+  </si>
+  <si>
+    <t>En el proceso se familiarizará con los controles, tanto los de movimiento como los de interacción.</t>
+  </si>
+  <si>
+    <t>Una vez finalice este modo, se le recomienda que visite el modo libre, para vivir la experiencia a su manera.</t>
+  </si>
+  <si>
+    <t>Bien, vamos a comenzar. Por favor, siga las instrucciones.</t>
+  </si>
+  <si>
+    <t>Se le indicará lo que hacer, y se le mostrará una serie de listas de acciones que debe seguir para continuar.</t>
   </si>
 </sst>
 </file>
@@ -351,76 +360,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
+      <c r="C1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="F1" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/info.xlsx
+++ b/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Usuarios\Chris\Documentos\GitHub\wind-turbine-vr\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B31DC905-DAAA-406C-8F34-33A1F70D4CF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11E2751A-7648-47EF-86C3-6FDAD74392AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>¡Bienvenido al modo guía de Wind Turbine VR!</t>
   </si>
@@ -33,16 +33,22 @@
     <t>Este modo le enseñará a seguir los procedimientos de seguridad para entrar a un aerogenerador y desplazarse por él.</t>
   </si>
   <si>
-    <t>En el proceso se familiarizará con los controles, tanto los de movimiento como los de interacción.</t>
-  </si>
-  <si>
     <t>Una vez finalice este modo, se le recomienda que visite el modo libre, para vivir la experiencia a su manera.</t>
   </si>
   <si>
-    <t>Bien, vamos a comenzar. Por favor, siga las instrucciones.</t>
-  </si>
-  <si>
-    <t>Se le indicará lo que hacer, y se le mostrará una serie de listas de acciones que debe seguir para continuar.</t>
+    <t>Para ello, se le mostrarán paneles naranjas como este, que le indicarán lo que hacer, y que a veces mostrarán una serie de listas de acciones que debe seguir para continuar.</t>
+  </si>
+  <si>
+    <t>A lo largo de la sesión, se irá familiarizando tanto con los controles de movimiento como con los de interacción.</t>
+  </si>
+  <si>
+    <t>Además de los paneles naranjas, se le mostrarán paneles azules cuando interactúe con los distintos elementos del aerogenerador, que le mostrarán información acerca de los mismos.</t>
+  </si>
+  <si>
+    <t>La información de los paneles azules también es accesible desde el modo libre.</t>
+  </si>
+  <si>
+    <t>Cuando esté preparado, pulse continuar.</t>
   </si>
 </sst>
 </file>
@@ -360,15 +366,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -376,16 +382,22 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
       <c r="E1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F1" t="s">
         <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
